--- a/Portal Capital Model/2013 Tracker v.01.xlsx
+++ b/Portal Capital Model/2013 Tracker v.01.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21840" windowHeight="13095" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="21840" windowHeight="13095" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sagarin Ratings 2013.03.13" sheetId="3" r:id="rId1"/>
-    <sheet name="2012.03.12 Sagarin Ratings" sheetId="4" r:id="rId2"/>
-    <sheet name="usaTodayNames" sheetId="5" r:id="rId3"/>
-    <sheet name="TeamData" sheetId="1" r:id="rId4"/>
+    <sheet name="2013.03.17 Sagarin Ratings" sheetId="7" r:id="rId1"/>
+    <sheet name="Sagarin Ratings 2013.03.13" sheetId="3" r:id="rId2"/>
+    <sheet name="2012.03.12 Sagarin Ratings" sheetId="4" r:id="rId3"/>
+    <sheet name="usaTodayNames" sheetId="5" r:id="rId4"/>
+    <sheet name="TeamData" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH" hidden="1">110000</definedName>
@@ -37,7 +38,7 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH" hidden="1">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">41307.8244907407</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">41303.8599884259</definedName>
     <definedName name="IQ_NTM" hidden="1">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
@@ -45,12 +46,12 @@
     <definedName name="IQ_YTD" hidden="1">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="413">
   <si>
     <t>Name</t>
   </si>
@@ -1295,10 +1296,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1361,25 +1369,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal_Sheet3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1681,8 +1692,4896 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D348"/>
   <sheetViews>
+    <sheetView topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="A348" sqref="A348"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>95.01</v>
+      </c>
+      <c r="C2">
+        <v>95.26</v>
+      </c>
+      <c r="D2">
+        <v>94.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>92.48</v>
+      </c>
+      <c r="C3">
+        <v>91.65</v>
+      </c>
+      <c r="D3">
+        <v>93.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>92.29</v>
+      </c>
+      <c r="C4">
+        <v>91.17</v>
+      </c>
+      <c r="D4">
+        <v>93.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>91.85</v>
+      </c>
+      <c r="C5">
+        <v>91.95</v>
+      </c>
+      <c r="D5">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>91.42</v>
+      </c>
+      <c r="C6">
+        <v>91.56</v>
+      </c>
+      <c r="D6">
+        <v>91.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>91.2</v>
+      </c>
+      <c r="C7">
+        <v>90.94</v>
+      </c>
+      <c r="D7">
+        <v>91.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>90.79</v>
+      </c>
+      <c r="C8">
+        <v>90.52</v>
+      </c>
+      <c r="D8">
+        <v>91.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>89.8</v>
+      </c>
+      <c r="C9">
+        <v>89.95</v>
+      </c>
+      <c r="D9">
+        <v>89.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>89.66</v>
+      </c>
+      <c r="C10">
+        <v>90.47</v>
+      </c>
+      <c r="D10">
+        <v>88.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>89.08</v>
+      </c>
+      <c r="C11">
+        <v>88.78</v>
+      </c>
+      <c r="D11">
+        <v>89.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>89.04</v>
+      </c>
+      <c r="C12">
+        <v>89.03</v>
+      </c>
+      <c r="D12">
+        <v>89.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>88.8</v>
+      </c>
+      <c r="C13">
+        <v>88.05</v>
+      </c>
+      <c r="D13">
+        <v>89.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>88.77</v>
+      </c>
+      <c r="C14">
+        <v>88.82</v>
+      </c>
+      <c r="D14">
+        <v>88.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>88.32</v>
+      </c>
+      <c r="C15">
+        <v>88.71</v>
+      </c>
+      <c r="D15">
+        <v>87.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>87.74</v>
+      </c>
+      <c r="C16">
+        <v>88.34</v>
+      </c>
+      <c r="D16">
+        <v>87.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>87.26</v>
+      </c>
+      <c r="C17">
+        <v>86.91</v>
+      </c>
+      <c r="D17">
+        <v>87.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>86.9</v>
+      </c>
+      <c r="C18">
+        <v>87.94</v>
+      </c>
+      <c r="D18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19">
+        <v>86.8</v>
+      </c>
+      <c r="C19">
+        <v>86.94</v>
+      </c>
+      <c r="D19">
+        <v>86.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>86.7</v>
+      </c>
+      <c r="C20">
+        <v>87.09</v>
+      </c>
+      <c r="D20">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>86.61</v>
+      </c>
+      <c r="C21">
+        <v>87.74</v>
+      </c>
+      <c r="D21">
+        <v>85.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>86.59</v>
+      </c>
+      <c r="C22">
+        <v>86.27</v>
+      </c>
+      <c r="D22">
+        <v>86.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>86.56</v>
+      </c>
+      <c r="C23">
+        <v>87.3</v>
+      </c>
+      <c r="D23">
+        <v>85.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24">
+        <v>86.2</v>
+      </c>
+      <c r="C24">
+        <v>86.04</v>
+      </c>
+      <c r="D24">
+        <v>86.31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>86.17</v>
+      </c>
+      <c r="C25">
+        <v>86.59</v>
+      </c>
+      <c r="D25">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>86.14</v>
+      </c>
+      <c r="C26">
+        <v>86.52</v>
+      </c>
+      <c r="D26">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27">
+        <v>85.67</v>
+      </c>
+      <c r="C27">
+        <v>85.06</v>
+      </c>
+      <c r="D27">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>85.67</v>
+      </c>
+      <c r="C28">
+        <v>86.52</v>
+      </c>
+      <c r="D28">
+        <v>84.88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29">
+        <v>85.03</v>
+      </c>
+      <c r="C29">
+        <v>85</v>
+      </c>
+      <c r="D29">
+        <v>85.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30">
+        <v>85</v>
+      </c>
+      <c r="C30">
+        <v>84.95</v>
+      </c>
+      <c r="D30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31">
+        <v>84.98</v>
+      </c>
+      <c r="C31">
+        <v>84.57</v>
+      </c>
+      <c r="D31">
+        <v>85.37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>84.93</v>
+      </c>
+      <c r="C32">
+        <v>84.79</v>
+      </c>
+      <c r="D32">
+        <v>85.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>84.74</v>
+      </c>
+      <c r="C33">
+        <v>84.66</v>
+      </c>
+      <c r="D33">
+        <v>84.77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>84.65</v>
+      </c>
+      <c r="C34">
+        <v>84.84</v>
+      </c>
+      <c r="D34">
+        <v>84.42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <v>84.58</v>
+      </c>
+      <c r="C35">
+        <v>83.93</v>
+      </c>
+      <c r="D35">
+        <v>85.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>84.52</v>
+      </c>
+      <c r="C36">
+        <v>84.85</v>
+      </c>
+      <c r="D36">
+        <v>84.17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>84.21</v>
+      </c>
+      <c r="C37">
+        <v>84.02</v>
+      </c>
+      <c r="D37">
+        <v>84.37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>84.2</v>
+      </c>
+      <c r="C38">
+        <v>83.42</v>
+      </c>
+      <c r="D38">
+        <v>85.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>84.14</v>
+      </c>
+      <c r="C39">
+        <v>83.72</v>
+      </c>
+      <c r="D39">
+        <v>84.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>84.12</v>
+      </c>
+      <c r="C40">
+        <v>84.23</v>
+      </c>
+      <c r="D40">
+        <v>83.97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41">
+        <v>83.61</v>
+      </c>
+      <c r="C41">
+        <v>84.1</v>
+      </c>
+      <c r="D41">
+        <v>83.11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42">
+        <v>83.47</v>
+      </c>
+      <c r="C42">
+        <v>83.6</v>
+      </c>
+      <c r="D42">
+        <v>83.29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43">
+        <v>83.37</v>
+      </c>
+      <c r="C43">
+        <v>82.98</v>
+      </c>
+      <c r="D43">
+        <v>83.74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44">
+        <v>83.33</v>
+      </c>
+      <c r="C44">
+        <v>83.67</v>
+      </c>
+      <c r="D44">
+        <v>82.96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45">
+        <v>83.18</v>
+      </c>
+      <c r="C45">
+        <v>83.02</v>
+      </c>
+      <c r="D45">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46">
+        <v>83.02</v>
+      </c>
+      <c r="C46">
+        <v>84.13</v>
+      </c>
+      <c r="D46">
+        <v>82.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47">
+        <v>83.01</v>
+      </c>
+      <c r="C47">
+        <v>83.55</v>
+      </c>
+      <c r="D47">
+        <v>82.45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48">
+        <v>82.91</v>
+      </c>
+      <c r="C48">
+        <v>83.16</v>
+      </c>
+      <c r="D48">
+        <v>82.63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <v>82.7</v>
+      </c>
+      <c r="C49">
+        <v>82.62</v>
+      </c>
+      <c r="D49">
+        <v>82.74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50">
+        <v>82.62</v>
+      </c>
+      <c r="C50">
+        <v>82.7</v>
+      </c>
+      <c r="D50">
+        <v>82.49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51">
+        <v>82.44</v>
+      </c>
+      <c r="C51">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="D51">
+        <v>82.96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52">
+        <v>82.38</v>
+      </c>
+      <c r="C52">
+        <v>82.5</v>
+      </c>
+      <c r="D52">
+        <v>82.22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>82.38</v>
+      </c>
+      <c r="C53">
+        <v>82.34</v>
+      </c>
+      <c r="D53">
+        <v>82.37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54">
+        <v>81.94</v>
+      </c>
+      <c r="C54">
+        <v>80.989999999999995</v>
+      </c>
+      <c r="D54">
+        <v>82.98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55">
+        <v>81.88</v>
+      </c>
+      <c r="C55">
+        <v>81.84</v>
+      </c>
+      <c r="D55">
+        <v>81.88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="C56">
+        <v>82.31</v>
+      </c>
+      <c r="D56">
+        <v>81.31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57">
+        <v>81.69</v>
+      </c>
+      <c r="C57">
+        <v>81.790000000000006</v>
+      </c>
+      <c r="D57">
+        <v>81.55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="C58">
+        <v>81.55</v>
+      </c>
+      <c r="D58">
+        <v>81.59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59">
+        <v>81.5</v>
+      </c>
+      <c r="C59">
+        <v>81.84</v>
+      </c>
+      <c r="D59">
+        <v>81.12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="C60">
+        <v>81.28</v>
+      </c>
+      <c r="D60">
+        <v>81.47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61">
+        <v>81.39</v>
+      </c>
+      <c r="C61">
+        <v>80.58</v>
+      </c>
+      <c r="D61">
+        <v>82.24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>81.36</v>
+      </c>
+      <c r="C62">
+        <v>80.89</v>
+      </c>
+      <c r="D62">
+        <v>81.81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63">
+        <v>81.150000000000006</v>
+      </c>
+      <c r="C63">
+        <v>80.97</v>
+      </c>
+      <c r="D63">
+        <v>81.28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="C64">
+        <v>80.680000000000007</v>
+      </c>
+      <c r="D64">
+        <v>80.92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65">
+        <v>80.7</v>
+      </c>
+      <c r="C65">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="D65">
+        <v>81.42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66">
+        <v>80.37</v>
+      </c>
+      <c r="C66">
+        <v>80.23</v>
+      </c>
+      <c r="D66">
+        <v>80.47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="C67">
+        <v>80.59</v>
+      </c>
+      <c r="D67">
+        <v>80.069999999999993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68">
+        <v>80.31</v>
+      </c>
+      <c r="C68">
+        <v>80.22</v>
+      </c>
+      <c r="D68">
+        <v>80.36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69">
+        <v>80.08</v>
+      </c>
+      <c r="C69">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="D69">
+        <v>80.540000000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70">
+        <v>80</v>
+      </c>
+      <c r="C70">
+        <v>79.58</v>
+      </c>
+      <c r="D70">
+        <v>80.39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71">
+        <v>79.89</v>
+      </c>
+      <c r="C71">
+        <v>80.05</v>
+      </c>
+      <c r="D71">
+        <v>79.680000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72">
+        <v>79.8</v>
+      </c>
+      <c r="C72">
+        <v>79.53</v>
+      </c>
+      <c r="D72">
+        <v>80.040000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73">
+        <v>79.760000000000005</v>
+      </c>
+      <c r="C73">
+        <v>80.39</v>
+      </c>
+      <c r="D73">
+        <v>79.12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74">
+        <v>79.739999999999995</v>
+      </c>
+      <c r="C74">
+        <v>80.22</v>
+      </c>
+      <c r="D74">
+        <v>79.23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75">
+        <v>79.64</v>
+      </c>
+      <c r="C75">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="D75">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76">
+        <v>79.58</v>
+      </c>
+      <c r="C76">
+        <v>79.790000000000006</v>
+      </c>
+      <c r="D76">
+        <v>79.319999999999993</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77">
+        <v>79.44</v>
+      </c>
+      <c r="C77">
+        <v>79.680000000000007</v>
+      </c>
+      <c r="D77">
+        <v>79.16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>79.42</v>
+      </c>
+      <c r="C78">
+        <v>79.33</v>
+      </c>
+      <c r="D78">
+        <v>79.47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79">
+        <v>79.14</v>
+      </c>
+      <c r="C79">
+        <v>79.62</v>
+      </c>
+      <c r="D79">
+        <v>78.63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80">
+        <v>79.12</v>
+      </c>
+      <c r="C80">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="D80">
+        <v>78.930000000000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81">
+        <v>79.09</v>
+      </c>
+      <c r="C81">
+        <v>78.64</v>
+      </c>
+      <c r="D81">
+        <v>79.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82">
+        <v>78.98</v>
+      </c>
+      <c r="C82">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="D82">
+        <v>78.66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83">
+        <v>78.91</v>
+      </c>
+      <c r="C83">
+        <v>78.61</v>
+      </c>
+      <c r="D83">
+        <v>79.180000000000007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84">
+        <v>78.75</v>
+      </c>
+      <c r="C84">
+        <v>78.349999999999994</v>
+      </c>
+      <c r="D84">
+        <v>79.12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85">
+        <v>78.63</v>
+      </c>
+      <c r="C85">
+        <v>78.98</v>
+      </c>
+      <c r="D85">
+        <v>78.239999999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86">
+        <v>78.45</v>
+      </c>
+      <c r="C86">
+        <v>77.959999999999994</v>
+      </c>
+      <c r="D86">
+        <v>78.91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="C87">
+        <v>78.27</v>
+      </c>
+      <c r="D87">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88">
+        <v>78</v>
+      </c>
+      <c r="C88">
+        <v>78.67</v>
+      </c>
+      <c r="D88">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89">
+        <v>77.98</v>
+      </c>
+      <c r="C89">
+        <v>78.44</v>
+      </c>
+      <c r="D89">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90">
+        <v>77.97</v>
+      </c>
+      <c r="C90">
+        <v>77.89</v>
+      </c>
+      <c r="D90">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91">
+        <v>77.959999999999994</v>
+      </c>
+      <c r="C91">
+        <v>78.12</v>
+      </c>
+      <c r="D91">
+        <v>77.739999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92">
+        <v>77.87</v>
+      </c>
+      <c r="C92">
+        <v>78.11</v>
+      </c>
+      <c r="D92">
+        <v>77.58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93">
+        <v>77.86</v>
+      </c>
+      <c r="C93">
+        <v>77.819999999999993</v>
+      </c>
+      <c r="D93">
+        <v>77.86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94">
+        <v>77.739999999999995</v>
+      </c>
+      <c r="C94">
+        <v>77.760000000000005</v>
+      </c>
+      <c r="D94">
+        <v>77.680000000000007</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95">
+        <v>77.67</v>
+      </c>
+      <c r="C95">
+        <v>77.319999999999993</v>
+      </c>
+      <c r="D95">
+        <v>77.98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96">
+        <v>77.66</v>
+      </c>
+      <c r="C96">
+        <v>77.69</v>
+      </c>
+      <c r="D96">
+        <v>77.569999999999993</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97">
+        <v>77.55</v>
+      </c>
+      <c r="C97">
+        <v>76.45</v>
+      </c>
+      <c r="D97">
+        <v>78.69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98">
+        <v>77.52</v>
+      </c>
+      <c r="C98">
+        <v>77.36</v>
+      </c>
+      <c r="D98">
+        <v>77.63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99">
+        <v>77.5</v>
+      </c>
+      <c r="C99">
+        <v>77.66</v>
+      </c>
+      <c r="D99">
+        <v>77.28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100">
+        <v>77.42</v>
+      </c>
+      <c r="C100">
+        <v>77.55</v>
+      </c>
+      <c r="D100">
+        <v>77.239999999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101">
+        <v>77.41</v>
+      </c>
+      <c r="C101">
+        <v>77.13</v>
+      </c>
+      <c r="D101">
+        <v>77.64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="C102">
+        <v>77.19</v>
+      </c>
+      <c r="D102">
+        <v>76.97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103">
+        <v>77.08</v>
+      </c>
+      <c r="C103">
+        <v>76.97</v>
+      </c>
+      <c r="D103">
+        <v>77.14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104">
+        <v>77.03</v>
+      </c>
+      <c r="C104">
+        <v>77.55</v>
+      </c>
+      <c r="D104">
+        <v>76.47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="C105">
+        <v>76.89</v>
+      </c>
+      <c r="D105">
+        <v>77.040000000000006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>76.98</v>
+      </c>
+      <c r="C106">
+        <v>76.95</v>
+      </c>
+      <c r="D106">
+        <v>76.959999999999994</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107">
+        <v>76.930000000000007</v>
+      </c>
+      <c r="C107">
+        <v>77.040000000000006</v>
+      </c>
+      <c r="D107">
+        <v>76.77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108">
+        <v>76.92</v>
+      </c>
+      <c r="C108">
+        <v>76.88</v>
+      </c>
+      <c r="D108">
+        <v>76.91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109">
+        <v>76.81</v>
+      </c>
+      <c r="C109">
+        <v>76.78</v>
+      </c>
+      <c r="D109">
+        <v>76.790000000000006</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110">
+        <v>76.709999999999994</v>
+      </c>
+      <c r="C110">
+        <v>76.86</v>
+      </c>
+      <c r="D110">
+        <v>76.53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="C111">
+        <v>77.069999999999993</v>
+      </c>
+      <c r="D111">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112">
+        <v>76.45</v>
+      </c>
+      <c r="C112">
+        <v>76.13</v>
+      </c>
+      <c r="D112">
+        <v>76.73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113">
+        <v>76.34</v>
+      </c>
+      <c r="C113">
+        <v>76.22</v>
+      </c>
+      <c r="D113">
+        <v>76.41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114">
+        <v>76.31</v>
+      </c>
+      <c r="C114">
+        <v>76.2</v>
+      </c>
+      <c r="D114">
+        <v>76.37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115">
+        <v>76.2</v>
+      </c>
+      <c r="C115">
+        <v>75.86</v>
+      </c>
+      <c r="D115">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>59</v>
+      </c>
+      <c r="B116">
+        <v>76.19</v>
+      </c>
+      <c r="C116">
+        <v>76.63</v>
+      </c>
+      <c r="D116">
+        <v>75.709999999999994</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117">
+        <v>76.17</v>
+      </c>
+      <c r="C117">
+        <v>76.75</v>
+      </c>
+      <c r="D117">
+        <v>75.56</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>75.97</v>
+      </c>
+      <c r="C118">
+        <v>75.92</v>
+      </c>
+      <c r="D118">
+        <v>75.97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>131</v>
+      </c>
+      <c r="B119">
+        <v>75.91</v>
+      </c>
+      <c r="C119">
+        <v>75.52</v>
+      </c>
+      <c r="D119">
+        <v>76.260000000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>134</v>
+      </c>
+      <c r="B120">
+        <v>75.87</v>
+      </c>
+      <c r="C120">
+        <v>75.94</v>
+      </c>
+      <c r="D120">
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121">
+        <v>75.83</v>
+      </c>
+      <c r="C121">
+        <v>75.290000000000006</v>
+      </c>
+      <c r="D121">
+        <v>76.33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>136</v>
+      </c>
+      <c r="B122">
+        <v>75.739999999999995</v>
+      </c>
+      <c r="C122">
+        <v>75.75</v>
+      </c>
+      <c r="D122">
+        <v>75.680000000000007</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123">
+        <v>75.73</v>
+      </c>
+      <c r="C123">
+        <v>75.849999999999994</v>
+      </c>
+      <c r="D123">
+        <v>75.569999999999993</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>142</v>
+      </c>
+      <c r="B124">
+        <v>75.62</v>
+      </c>
+      <c r="C124">
+        <v>76.09</v>
+      </c>
+      <c r="D124">
+        <v>75.11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="C125">
+        <v>75.81</v>
+      </c>
+      <c r="D125">
+        <v>75.349999999999994</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126">
+        <v>75.59</v>
+      </c>
+      <c r="C126">
+        <v>75.58</v>
+      </c>
+      <c r="D126">
+        <v>75.56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>138</v>
+      </c>
+      <c r="B127">
+        <v>75.53</v>
+      </c>
+      <c r="C127">
+        <v>75.33</v>
+      </c>
+      <c r="D127">
+        <v>75.69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>141</v>
+      </c>
+      <c r="B128">
+        <v>75.47</v>
+      </c>
+      <c r="C128">
+        <v>76.349999999999994</v>
+      </c>
+      <c r="D128">
+        <v>74.58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129">
+        <v>75.36</v>
+      </c>
+      <c r="C129">
+        <v>75.48</v>
+      </c>
+      <c r="D129">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>51</v>
+      </c>
+      <c r="B130">
+        <v>75.22</v>
+      </c>
+      <c r="C130">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="D130">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131">
+        <v>75.150000000000006</v>
+      </c>
+      <c r="C131">
+        <v>75.39</v>
+      </c>
+      <c r="D131">
+        <v>74.86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="C132">
+        <v>75.11</v>
+      </c>
+      <c r="D132">
+        <v>74.98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133">
+        <v>75.05</v>
+      </c>
+      <c r="C133">
+        <v>75.12</v>
+      </c>
+      <c r="D133">
+        <v>74.930000000000007</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134">
+        <v>74.930000000000007</v>
+      </c>
+      <c r="C134">
+        <v>75.56</v>
+      </c>
+      <c r="D134">
+        <v>74.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135">
+        <v>74.739999999999995</v>
+      </c>
+      <c r="C135">
+        <v>74.55</v>
+      </c>
+      <c r="D135">
+        <v>74.89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136">
+        <v>74.73</v>
+      </c>
+      <c r="C136">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="D136">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137">
+        <v>74.61</v>
+      </c>
+      <c r="C137">
+        <v>74.28</v>
+      </c>
+      <c r="D137">
+        <v>74.89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138">
+        <v>74.31</v>
+      </c>
+      <c r="C138">
+        <v>74.27</v>
+      </c>
+      <c r="D138">
+        <v>74.31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139">
+        <v>74.23</v>
+      </c>
+      <c r="C139">
+        <v>74.39</v>
+      </c>
+      <c r="D139">
+        <v>74.010000000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>148</v>
+      </c>
+      <c r="B140">
+        <v>74.209999999999994</v>
+      </c>
+      <c r="C140">
+        <v>74.37</v>
+      </c>
+      <c r="D140">
+        <v>73.989999999999995</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B141">
+        <v>74.2</v>
+      </c>
+      <c r="C141">
+        <v>74.23</v>
+      </c>
+      <c r="D141">
+        <v>74.13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142">
+        <v>74.180000000000007</v>
+      </c>
+      <c r="C142">
+        <v>74.17</v>
+      </c>
+      <c r="D142">
+        <v>74.14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143">
+        <v>74.150000000000006</v>
+      </c>
+      <c r="C143">
+        <v>74.16</v>
+      </c>
+      <c r="D143">
+        <v>74.09</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144">
+        <v>74.03</v>
+      </c>
+      <c r="C144">
+        <v>74</v>
+      </c>
+      <c r="D144">
+        <v>74.010000000000005</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>57</v>
+      </c>
+      <c r="B145">
+        <v>74</v>
+      </c>
+      <c r="C145">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="D145">
+        <v>73.959999999999994</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="C146">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="D146">
+        <v>73.48</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>156</v>
+      </c>
+      <c r="B147">
+        <v>73.97</v>
+      </c>
+      <c r="C147">
+        <v>73.69</v>
+      </c>
+      <c r="D147">
+        <v>74.22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148">
+        <v>73.95</v>
+      </c>
+      <c r="C148">
+        <v>74.069999999999993</v>
+      </c>
+      <c r="D148">
+        <v>73.790000000000006</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149">
+        <v>73.94</v>
+      </c>
+      <c r="C149">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D149">
+        <v>73.73</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>167</v>
+      </c>
+      <c r="B150">
+        <v>73.930000000000007</v>
+      </c>
+      <c r="C150">
+        <v>73.73</v>
+      </c>
+      <c r="D150">
+        <v>74.09</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151">
+        <v>73.84</v>
+      </c>
+      <c r="C151">
+        <v>73.739999999999995</v>
+      </c>
+      <c r="D151">
+        <v>73.89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152">
+        <v>73.77</v>
+      </c>
+      <c r="C152">
+        <v>73.62</v>
+      </c>
+      <c r="D152">
+        <v>73.86</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153">
+        <v>73.61</v>
+      </c>
+      <c r="C153">
+        <v>73.08</v>
+      </c>
+      <c r="D153">
+        <v>74.099999999999994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154">
+        <v>73.56</v>
+      </c>
+      <c r="C154">
+        <v>73.569999999999993</v>
+      </c>
+      <c r="D154">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155">
+        <v>73.44</v>
+      </c>
+      <c r="C155">
+        <v>73.33</v>
+      </c>
+      <c r="D155">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156">
+        <v>73.25</v>
+      </c>
+      <c r="C156">
+        <v>73.59</v>
+      </c>
+      <c r="D156">
+        <v>72.87</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="C157">
+        <v>73.3</v>
+      </c>
+      <c r="D157">
+        <v>73.08</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="C158">
+        <v>72.56</v>
+      </c>
+      <c r="D158">
+        <v>73.819999999999993</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>169</v>
+      </c>
+      <c r="B159">
+        <v>73.09</v>
+      </c>
+      <c r="C159">
+        <v>73.22</v>
+      </c>
+      <c r="D159">
+        <v>72.92</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160">
+        <v>73.069999999999993</v>
+      </c>
+      <c r="C160">
+        <v>72.489999999999995</v>
+      </c>
+      <c r="D160">
+        <v>73.61</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>170</v>
+      </c>
+      <c r="B161">
+        <v>73</v>
+      </c>
+      <c r="C161">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="D161">
+        <v>72.77</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162">
+        <v>72.91</v>
+      </c>
+      <c r="C162">
+        <v>72.819999999999993</v>
+      </c>
+      <c r="D162">
+        <v>72.95</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>172</v>
+      </c>
+      <c r="B163">
+        <v>72.8</v>
+      </c>
+      <c r="C163">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="D163">
+        <v>72.44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>171</v>
+      </c>
+      <c r="B164">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="C164">
+        <v>73.02</v>
+      </c>
+      <c r="D164">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>177</v>
+      </c>
+      <c r="B165">
+        <v>72.78</v>
+      </c>
+      <c r="C165">
+        <v>72.92</v>
+      </c>
+      <c r="D165">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166">
+        <v>72.77</v>
+      </c>
+      <c r="C166">
+        <v>72.55</v>
+      </c>
+      <c r="D166">
+        <v>72.95</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167">
+        <v>72.73</v>
+      </c>
+      <c r="C167">
+        <v>72.42</v>
+      </c>
+      <c r="D167">
+        <v>72.98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>180</v>
+      </c>
+      <c r="B168">
+        <v>72.709999999999994</v>
+      </c>
+      <c r="C168">
+        <v>72.63</v>
+      </c>
+      <c r="D168">
+        <v>72.75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169">
+        <v>72.489999999999995</v>
+      </c>
+      <c r="C169">
+        <v>72.73</v>
+      </c>
+      <c r="D169">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>176</v>
+      </c>
+      <c r="B170">
+        <v>72.459999999999994</v>
+      </c>
+      <c r="C170">
+        <v>72.58</v>
+      </c>
+      <c r="D170">
+        <v>72.290000000000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171">
+        <v>72.290000000000006</v>
+      </c>
+      <c r="C171">
+        <v>72.09</v>
+      </c>
+      <c r="D171">
+        <v>72.44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172">
+        <v>72.27</v>
+      </c>
+      <c r="C172">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="D172">
+        <v>72.13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>191</v>
+      </c>
+      <c r="B173">
+        <v>72.25</v>
+      </c>
+      <c r="C173">
+        <v>72.14</v>
+      </c>
+      <c r="D173">
+        <v>72.31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>183</v>
+      </c>
+      <c r="B174">
+        <v>72.11</v>
+      </c>
+      <c r="C174">
+        <v>71.94</v>
+      </c>
+      <c r="D174">
+        <v>72.239999999999995</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175">
+        <v>72.11</v>
+      </c>
+      <c r="C175">
+        <v>72.17</v>
+      </c>
+      <c r="D175">
+        <v>72.010000000000005</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="C176">
+        <v>71.75</v>
+      </c>
+      <c r="D176">
+        <v>72.349999999999994</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177">
+        <v>72.05</v>
+      </c>
+      <c r="C177">
+        <v>71.92</v>
+      </c>
+      <c r="D177">
+        <v>72.14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>186</v>
+      </c>
+      <c r="B178">
+        <v>71.94</v>
+      </c>
+      <c r="C178">
+        <v>71.98</v>
+      </c>
+      <c r="D178">
+        <v>71.86</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>188</v>
+      </c>
+      <c r="B179">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="C179">
+        <v>71.58</v>
+      </c>
+      <c r="D179">
+        <v>72.180000000000007</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>189</v>
+      </c>
+      <c r="B180">
+        <v>71.77</v>
+      </c>
+      <c r="C180">
+        <v>71.72</v>
+      </c>
+      <c r="D180">
+        <v>71.78</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="C181">
+        <v>71.3</v>
+      </c>
+      <c r="D181">
+        <v>72.17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182">
+        <v>71.67</v>
+      </c>
+      <c r="C182">
+        <v>71.92</v>
+      </c>
+      <c r="D182">
+        <v>71.38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>193</v>
+      </c>
+      <c r="B183">
+        <v>71.48</v>
+      </c>
+      <c r="C183">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="D183">
+        <v>71.48</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184">
+        <v>71.459999999999994</v>
+      </c>
+      <c r="C184">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="D184">
+        <v>71.11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>195</v>
+      </c>
+      <c r="B185">
+        <v>71.34</v>
+      </c>
+      <c r="C185">
+        <v>71.52</v>
+      </c>
+      <c r="D185">
+        <v>71.11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>197</v>
+      </c>
+      <c r="B186">
+        <v>71.290000000000006</v>
+      </c>
+      <c r="C186">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="D186">
+        <v>70.77</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>194</v>
+      </c>
+      <c r="B187">
+        <v>71.27</v>
+      </c>
+      <c r="C187">
+        <v>70.94</v>
+      </c>
+      <c r="D187">
+        <v>71.55</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188">
+        <v>71.06</v>
+      </c>
+      <c r="C188">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="D188">
+        <v>70.84</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>196</v>
+      </c>
+      <c r="B189">
+        <v>71.02</v>
+      </c>
+      <c r="C189">
+        <v>69.78</v>
+      </c>
+      <c r="D189">
+        <v>72.180000000000007</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>201</v>
+      </c>
+      <c r="B190">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="C190">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="D190">
+        <v>70.41</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>202</v>
+      </c>
+      <c r="B191">
+        <v>70.81</v>
+      </c>
+      <c r="C191">
+        <v>71.010000000000005</v>
+      </c>
+      <c r="D191">
+        <v>70.55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>203</v>
+      </c>
+      <c r="B192">
+        <v>70.8</v>
+      </c>
+      <c r="C192">
+        <v>70.5</v>
+      </c>
+      <c r="D192">
+        <v>71.05</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="C193">
+        <v>71.16</v>
+      </c>
+      <c r="D193">
+        <v>70.37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>204</v>
+      </c>
+      <c r="B194">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="C194">
+        <v>71.09</v>
+      </c>
+      <c r="D194">
+        <v>70.430000000000007</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>206</v>
+      </c>
+      <c r="B195">
+        <v>70.7</v>
+      </c>
+      <c r="C195">
+        <v>70.69</v>
+      </c>
+      <c r="D195">
+        <v>70.67</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>208</v>
+      </c>
+      <c r="B196">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="C196">
+        <v>70.98</v>
+      </c>
+      <c r="D196">
+        <v>70.319999999999993</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>209</v>
+      </c>
+      <c r="B197">
+        <v>70.67</v>
+      </c>
+      <c r="C197">
+        <v>70.63</v>
+      </c>
+      <c r="D197">
+        <v>70.650000000000006</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>205</v>
+      </c>
+      <c r="B198">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="C198">
+        <v>70.47</v>
+      </c>
+      <c r="D198">
+        <v>70.790000000000006</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>207</v>
+      </c>
+      <c r="B199">
+        <v>70.64</v>
+      </c>
+      <c r="C199">
+        <v>70.510000000000005</v>
+      </c>
+      <c r="D199">
+        <v>70.72</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>70.52</v>
+      </c>
+      <c r="C200">
+        <v>70.28</v>
+      </c>
+      <c r="D200">
+        <v>70.709999999999994</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>215</v>
+      </c>
+      <c r="B201">
+        <v>70.47</v>
+      </c>
+      <c r="C201">
+        <v>70.930000000000007</v>
+      </c>
+      <c r="D201">
+        <v>69.95</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>212</v>
+      </c>
+      <c r="B202">
+        <v>70.44</v>
+      </c>
+      <c r="C202">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="D202">
+        <v>70.62</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>211</v>
+      </c>
+      <c r="B203">
+        <v>70.44</v>
+      </c>
+      <c r="C203">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="D203">
+        <v>70.239999999999995</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>214</v>
+      </c>
+      <c r="B204">
+        <v>70.41</v>
+      </c>
+      <c r="C204">
+        <v>70.28</v>
+      </c>
+      <c r="D204">
+        <v>70.489999999999995</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>223</v>
+      </c>
+      <c r="B205">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="C205">
+        <v>71.290000000000006</v>
+      </c>
+      <c r="D205">
+        <v>69.44</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206">
+        <v>70.38</v>
+      </c>
+      <c r="C206">
+        <v>70.09</v>
+      </c>
+      <c r="D206">
+        <v>70.62</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>192</v>
+      </c>
+      <c r="B207">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="C207">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="D207">
+        <v>70.75</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>217</v>
+      </c>
+      <c r="B208">
+        <v>70.319999999999993</v>
+      </c>
+      <c r="C208">
+        <v>71.09</v>
+      </c>
+      <c r="D208">
+        <v>69.489999999999995</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209">
+        <v>70.16</v>
+      </c>
+      <c r="C209">
+        <v>70.08</v>
+      </c>
+      <c r="D209">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>218</v>
+      </c>
+      <c r="B210">
+        <v>70.05</v>
+      </c>
+      <c r="C210">
+        <v>70.06</v>
+      </c>
+      <c r="D210">
+        <v>69.989999999999995</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>227</v>
+      </c>
+      <c r="B211">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="C211">
+        <v>71.209999999999994</v>
+      </c>
+      <c r="D211">
+        <v>68.67</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>220</v>
+      </c>
+      <c r="B212">
+        <v>69.86</v>
+      </c>
+      <c r="C212">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="D212">
+        <v>69.94</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>221</v>
+      </c>
+      <c r="B213">
+        <v>69.83</v>
+      </c>
+      <c r="C213">
+        <v>69.75</v>
+      </c>
+      <c r="D213">
+        <v>69.86</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>222</v>
+      </c>
+      <c r="B214">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="C214">
+        <v>69.14</v>
+      </c>
+      <c r="D214">
+        <v>70.23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215">
+        <v>69.69</v>
+      </c>
+      <c r="C215">
+        <v>68.72</v>
+      </c>
+      <c r="D215">
+        <v>70.569999999999993</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>225</v>
+      </c>
+      <c r="B216">
+        <v>69.62</v>
+      </c>
+      <c r="C216">
+        <v>69.239999999999995</v>
+      </c>
+      <c r="D216">
+        <v>69.94</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>224</v>
+      </c>
+      <c r="B217">
+        <v>69.510000000000005</v>
+      </c>
+      <c r="C217">
+        <v>69.290000000000006</v>
+      </c>
+      <c r="D217">
+        <v>69.680000000000007</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>43</v>
+      </c>
+      <c r="B218">
+        <v>69.27</v>
+      </c>
+      <c r="C218">
+        <v>69.66</v>
+      </c>
+      <c r="D218">
+        <v>68.83</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>226</v>
+      </c>
+      <c r="B219">
+        <v>69.12</v>
+      </c>
+      <c r="C219">
+        <v>69.13</v>
+      </c>
+      <c r="D219">
+        <v>69.069999999999993</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>69.08</v>
+      </c>
+      <c r="C220">
+        <v>69.16</v>
+      </c>
+      <c r="D220">
+        <v>68.95</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>229</v>
+      </c>
+      <c r="B221">
+        <v>69.02</v>
+      </c>
+      <c r="C221">
+        <v>69.25</v>
+      </c>
+      <c r="D221">
+        <v>68.739999999999995</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="C222">
+        <v>68.62</v>
+      </c>
+      <c r="D222">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>230</v>
+      </c>
+      <c r="B223">
+        <v>68.89</v>
+      </c>
+      <c r="C223">
+        <v>69.3</v>
+      </c>
+      <c r="D223">
+        <v>68.42</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>232</v>
+      </c>
+      <c r="B224">
+        <v>68.89</v>
+      </c>
+      <c r="C224">
+        <v>69.3</v>
+      </c>
+      <c r="D224">
+        <v>68.42</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>231</v>
+      </c>
+      <c r="B225">
+        <v>68.86</v>
+      </c>
+      <c r="C225">
+        <v>68.790000000000006</v>
+      </c>
+      <c r="D225">
+        <v>68.89</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>234</v>
+      </c>
+      <c r="B226">
+        <v>68.790000000000006</v>
+      </c>
+      <c r="C226">
+        <v>69.02</v>
+      </c>
+      <c r="D226">
+        <v>68.52</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>233</v>
+      </c>
+      <c r="B227">
+        <v>68.75</v>
+      </c>
+      <c r="C227">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="D227">
+        <v>69.38</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>235</v>
+      </c>
+      <c r="B228">
+        <v>68.67</v>
+      </c>
+      <c r="C228">
+        <v>68.62</v>
+      </c>
+      <c r="D228">
+        <v>68.680000000000007</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>236</v>
+      </c>
+      <c r="B229">
+        <v>68.56</v>
+      </c>
+      <c r="C229">
+        <v>68.81</v>
+      </c>
+      <c r="D229">
+        <v>68.260000000000005</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230">
+        <v>68.5</v>
+      </c>
+      <c r="C230">
+        <v>68.73</v>
+      </c>
+      <c r="D230">
+        <v>68.22</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>241</v>
+      </c>
+      <c r="B231">
+        <v>68.27</v>
+      </c>
+      <c r="C231">
+        <v>68.09</v>
+      </c>
+      <c r="D231">
+        <v>68.41</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>240</v>
+      </c>
+      <c r="B232">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="C232">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="D232">
+        <v>68.84</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>239</v>
+      </c>
+      <c r="B233">
+        <v>68.2</v>
+      </c>
+      <c r="C233">
+        <v>68.37</v>
+      </c>
+      <c r="D233">
+        <v>67.989999999999995</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>242</v>
+      </c>
+      <c r="B234">
+        <v>68.180000000000007</v>
+      </c>
+      <c r="C234">
+        <v>68.22</v>
+      </c>
+      <c r="D234">
+        <v>68.09</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>245</v>
+      </c>
+      <c r="B235">
+        <v>68.150000000000006</v>
+      </c>
+      <c r="C235">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="D235">
+        <v>67.790000000000006</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>244</v>
+      </c>
+      <c r="B236">
+        <v>68.14</v>
+      </c>
+      <c r="C236">
+        <v>68.319999999999993</v>
+      </c>
+      <c r="D236">
+        <v>67.92</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>259</v>
+      </c>
+      <c r="B237">
+        <v>68.13</v>
+      </c>
+      <c r="C237">
+        <v>67.97</v>
+      </c>
+      <c r="D237">
+        <v>68.25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>248</v>
+      </c>
+      <c r="B238">
+        <v>68.11</v>
+      </c>
+      <c r="C238">
+        <v>68.92</v>
+      </c>
+      <c r="D238">
+        <v>67.19</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>246</v>
+      </c>
+      <c r="B239">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="C239">
+        <v>67.8</v>
+      </c>
+      <c r="D239">
+        <v>68.349999999999994</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>250</v>
+      </c>
+      <c r="B240">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="C240">
+        <v>68.69</v>
+      </c>
+      <c r="D240">
+        <v>67.430000000000007</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>249</v>
+      </c>
+      <c r="B241">
+        <v>68.08</v>
+      </c>
+      <c r="C241">
+        <v>68.12</v>
+      </c>
+      <c r="D241">
+        <v>67.989999999999995</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>247</v>
+      </c>
+      <c r="B242">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="C242">
+        <v>67.83</v>
+      </c>
+      <c r="D242">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>265</v>
+      </c>
+      <c r="B243">
+        <v>67.989999999999995</v>
+      </c>
+      <c r="C243">
+        <v>67.67</v>
+      </c>
+      <c r="D243">
+        <v>68.260000000000005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>238</v>
+      </c>
+      <c r="B244">
+        <v>67.91</v>
+      </c>
+      <c r="C244">
+        <v>68.12</v>
+      </c>
+      <c r="D244">
+        <v>67.66</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>251</v>
+      </c>
+      <c r="B245">
+        <v>67.91</v>
+      </c>
+      <c r="C245">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="D245">
+        <v>68.53</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>253</v>
+      </c>
+      <c r="B246">
+        <v>67.89</v>
+      </c>
+      <c r="C246">
+        <v>68.150000000000006</v>
+      </c>
+      <c r="D246">
+        <v>67.59</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>252</v>
+      </c>
+      <c r="B247">
+        <v>67.84</v>
+      </c>
+      <c r="C247">
+        <v>67.92</v>
+      </c>
+      <c r="D247">
+        <v>67.72</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>254</v>
+      </c>
+      <c r="B248">
+        <v>67.83</v>
+      </c>
+      <c r="C248">
+        <v>68.28</v>
+      </c>
+      <c r="D248">
+        <v>67.33</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>261</v>
+      </c>
+      <c r="B249">
+        <v>67.83</v>
+      </c>
+      <c r="C249">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="D249">
+        <v>67.94</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>255</v>
+      </c>
+      <c r="B250">
+        <v>67.739999999999995</v>
+      </c>
+      <c r="C250">
+        <v>67.739999999999995</v>
+      </c>
+      <c r="D250">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>256</v>
+      </c>
+      <c r="B251">
+        <v>67.66</v>
+      </c>
+      <c r="C251">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="D251">
+        <v>68.260000000000005</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>243</v>
+      </c>
+      <c r="B252">
+        <v>67.58</v>
+      </c>
+      <c r="C252">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="D252">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>257</v>
+      </c>
+      <c r="B253">
+        <v>67.569999999999993</v>
+      </c>
+      <c r="C253">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="D253">
+        <v>67.94</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>258</v>
+      </c>
+      <c r="B254">
+        <v>67.48</v>
+      </c>
+      <c r="C254">
+        <v>67.14</v>
+      </c>
+      <c r="D254">
+        <v>67.760000000000005</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>262</v>
+      </c>
+      <c r="B255">
+        <v>67.41</v>
+      </c>
+      <c r="C255">
+        <v>67.39</v>
+      </c>
+      <c r="D255">
+        <v>67.38</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>260</v>
+      </c>
+      <c r="B256">
+        <v>67.39</v>
+      </c>
+      <c r="C256">
+        <v>67.33</v>
+      </c>
+      <c r="D256">
+        <v>67.41</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>263</v>
+      </c>
+      <c r="B257">
+        <v>67.33</v>
+      </c>
+      <c r="C257">
+        <v>67.06</v>
+      </c>
+      <c r="D257">
+        <v>67.55</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>271</v>
+      </c>
+      <c r="B258">
+        <v>67.31</v>
+      </c>
+      <c r="C258">
+        <v>66.92</v>
+      </c>
+      <c r="D258">
+        <v>67.650000000000006</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>272</v>
+      </c>
+      <c r="B259">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="C259">
+        <v>67.459999999999994</v>
+      </c>
+      <c r="D259">
+        <v>66.78</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>264</v>
+      </c>
+      <c r="B260">
+        <v>66.87</v>
+      </c>
+      <c r="C260">
+        <v>66.36</v>
+      </c>
+      <c r="D260">
+        <v>67.31</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>266</v>
+      </c>
+      <c r="B261">
+        <v>66.73</v>
+      </c>
+      <c r="C261">
+        <v>66.33</v>
+      </c>
+      <c r="D261">
+        <v>67.069999999999993</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>267</v>
+      </c>
+      <c r="B262">
+        <v>66.72</v>
+      </c>
+      <c r="C262">
+        <v>66.52</v>
+      </c>
+      <c r="D262">
+        <v>66.87</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>268</v>
+      </c>
+      <c r="B263">
+        <v>66.47</v>
+      </c>
+      <c r="C263">
+        <v>66.41</v>
+      </c>
+      <c r="D263">
+        <v>66.489999999999995</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>270</v>
+      </c>
+      <c r="B264">
+        <v>66.430000000000007</v>
+      </c>
+      <c r="C264">
+        <v>66.89</v>
+      </c>
+      <c r="D264">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>269</v>
+      </c>
+      <c r="B265">
+        <v>66.38</v>
+      </c>
+      <c r="C265">
+        <v>66.510000000000005</v>
+      </c>
+      <c r="D265">
+        <v>66.209999999999994</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>273</v>
+      </c>
+      <c r="B266">
+        <v>66.17</v>
+      </c>
+      <c r="C266">
+        <v>66.47</v>
+      </c>
+      <c r="D266">
+        <v>65.819999999999993</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>275</v>
+      </c>
+      <c r="B267">
+        <v>66.16</v>
+      </c>
+      <c r="C267">
+        <v>66.06</v>
+      </c>
+      <c r="D267">
+        <v>66.209999999999994</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>274</v>
+      </c>
+      <c r="B268">
+        <v>66.13</v>
+      </c>
+      <c r="C268">
+        <v>66.36</v>
+      </c>
+      <c r="D268">
+        <v>65.84</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>277</v>
+      </c>
+      <c r="B269">
+        <v>65.77</v>
+      </c>
+      <c r="C269">
+        <v>65.8</v>
+      </c>
+      <c r="D269">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>276</v>
+      </c>
+      <c r="B270">
+        <v>65.760000000000005</v>
+      </c>
+      <c r="C270">
+        <v>65.48</v>
+      </c>
+      <c r="D270">
+        <v>65.98</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>278</v>
+      </c>
+      <c r="B271">
+        <v>65.7</v>
+      </c>
+      <c r="C271">
+        <v>65.92</v>
+      </c>
+      <c r="D271">
+        <v>65.430000000000007</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>295</v>
+      </c>
+      <c r="B272">
+        <v>65.64</v>
+      </c>
+      <c r="C272">
+        <v>65.87</v>
+      </c>
+      <c r="D272">
+        <v>65.36</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>279</v>
+      </c>
+      <c r="B273">
+        <v>65.56</v>
+      </c>
+      <c r="C273">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="D273">
+        <v>65.209999999999994</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>283</v>
+      </c>
+      <c r="B274">
+        <v>65.44</v>
+      </c>
+      <c r="C274">
+        <v>65.75</v>
+      </c>
+      <c r="D274">
+        <v>65.08</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275">
+        <v>65.42</v>
+      </c>
+      <c r="C275">
+        <v>64.63</v>
+      </c>
+      <c r="D275">
+        <v>66.11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>282</v>
+      </c>
+      <c r="B276">
+        <v>65.38</v>
+      </c>
+      <c r="C276">
+        <v>65.28</v>
+      </c>
+      <c r="D276">
+        <v>65.44</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>286</v>
+      </c>
+      <c r="B277">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="C277">
+        <v>65.53</v>
+      </c>
+      <c r="D277">
+        <v>65.06</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>284</v>
+      </c>
+      <c r="B278">
+        <v>65.260000000000005</v>
+      </c>
+      <c r="C278">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="D278">
+        <v>65.540000000000006</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>287</v>
+      </c>
+      <c r="B279">
+        <v>65.2</v>
+      </c>
+      <c r="C279">
+        <v>65.63</v>
+      </c>
+      <c r="D279">
+        <v>64.709999999999994</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>291</v>
+      </c>
+      <c r="B280">
+        <v>65.08</v>
+      </c>
+      <c r="C280">
+        <v>65.88</v>
+      </c>
+      <c r="D280">
+        <v>64.150000000000006</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>288</v>
+      </c>
+      <c r="B281">
+        <v>65.08</v>
+      </c>
+      <c r="C281">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="D281">
+        <v>65.010000000000005</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="C282">
+        <v>64.81</v>
+      </c>
+      <c r="D282">
+        <v>65.27</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>289</v>
+      </c>
+      <c r="B283">
+        <v>65</v>
+      </c>
+      <c r="C283">
+        <v>65.290000000000006</v>
+      </c>
+      <c r="D283">
+        <v>64.66</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>290</v>
+      </c>
+      <c r="B284">
+        <v>65</v>
+      </c>
+      <c r="C284">
+        <v>64.88</v>
+      </c>
+      <c r="D284">
+        <v>65.069999999999993</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>292</v>
+      </c>
+      <c r="B285">
+        <v>64.959999999999994</v>
+      </c>
+      <c r="C285">
+        <v>64.819999999999993</v>
+      </c>
+      <c r="D285">
+        <v>65.040000000000006</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>297</v>
+      </c>
+      <c r="B286">
+        <v>64.88</v>
+      </c>
+      <c r="C286">
+        <v>65.25</v>
+      </c>
+      <c r="D286">
+        <v>64.45</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="C287">
+        <v>64.739999999999995</v>
+      </c>
+      <c r="D287">
+        <v>64.91</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>293</v>
+      </c>
+      <c r="B288">
+        <v>64.84</v>
+      </c>
+      <c r="C288">
+        <v>64.709999999999994</v>
+      </c>
+      <c r="D288">
+        <v>64.92</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>294</v>
+      </c>
+      <c r="B289">
+        <v>64.83</v>
+      </c>
+      <c r="C289">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="D289">
+        <v>64.38</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>298</v>
+      </c>
+      <c r="B290">
+        <v>64.72</v>
+      </c>
+      <c r="C290">
+        <v>64.86</v>
+      </c>
+      <c r="D290">
+        <v>64.53</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>299</v>
+      </c>
+      <c r="B291">
+        <v>64.62</v>
+      </c>
+      <c r="C291">
+        <v>64.34</v>
+      </c>
+      <c r="D291">
+        <v>64.84</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>300</v>
+      </c>
+      <c r="B292">
+        <v>64.23</v>
+      </c>
+      <c r="C292">
+        <v>64.36</v>
+      </c>
+      <c r="D292">
+        <v>64.06</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>296</v>
+      </c>
+      <c r="B293">
+        <v>64.2</v>
+      </c>
+      <c r="C293">
+        <v>64.42</v>
+      </c>
+      <c r="D293">
+        <v>63.93</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>301</v>
+      </c>
+      <c r="B294">
+        <v>64.17</v>
+      </c>
+      <c r="C294">
+        <v>64.17</v>
+      </c>
+      <c r="D294">
+        <v>64.11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>303</v>
+      </c>
+      <c r="B295">
+        <v>64.16</v>
+      </c>
+      <c r="C295">
+        <v>63.9</v>
+      </c>
+      <c r="D295">
+        <v>64.37</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>302</v>
+      </c>
+      <c r="B296">
+        <v>64.11</v>
+      </c>
+      <c r="C296">
+        <v>63.78</v>
+      </c>
+      <c r="D296">
+        <v>64.38</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>304</v>
+      </c>
+      <c r="B297">
+        <v>64.069999999999993</v>
+      </c>
+      <c r="C297">
+        <v>63.86</v>
+      </c>
+      <c r="D297">
+        <v>64.22</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>306</v>
+      </c>
+      <c r="B298">
+        <v>64</v>
+      </c>
+      <c r="C298">
+        <v>63.89</v>
+      </c>
+      <c r="D298">
+        <v>64.05</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>305</v>
+      </c>
+      <c r="B299">
+        <v>63.87</v>
+      </c>
+      <c r="C299">
+        <v>63.51</v>
+      </c>
+      <c r="D299">
+        <v>64.16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>308</v>
+      </c>
+      <c r="B300">
+        <v>63.59</v>
+      </c>
+      <c r="C300">
+        <v>63.41</v>
+      </c>
+      <c r="D300">
+        <v>63.73</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>307</v>
+      </c>
+      <c r="B301">
+        <v>63.54</v>
+      </c>
+      <c r="C301">
+        <v>63.27</v>
+      </c>
+      <c r="D301">
+        <v>63.75</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>310</v>
+      </c>
+      <c r="B302">
+        <v>63.42</v>
+      </c>
+      <c r="C302">
+        <v>64.28</v>
+      </c>
+      <c r="D302">
+        <v>62.41</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>312</v>
+      </c>
+      <c r="B303">
+        <v>63.4</v>
+      </c>
+      <c r="C303">
+        <v>63.22</v>
+      </c>
+      <c r="D303">
+        <v>63.52</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>313</v>
+      </c>
+      <c r="B304">
+        <v>63</v>
+      </c>
+      <c r="C304">
+        <v>62.68</v>
+      </c>
+      <c r="D304">
+        <v>63.27</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>309</v>
+      </c>
+      <c r="B305">
+        <v>62.98</v>
+      </c>
+      <c r="C305">
+        <v>62.91</v>
+      </c>
+      <c r="D305">
+        <v>63.01</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>314</v>
+      </c>
+      <c r="B306">
+        <v>62.97</v>
+      </c>
+      <c r="C306">
+        <v>63.39</v>
+      </c>
+      <c r="D306">
+        <v>62.48</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>317</v>
+      </c>
+      <c r="B307">
+        <v>62.96</v>
+      </c>
+      <c r="C307">
+        <v>63.25</v>
+      </c>
+      <c r="D307">
+        <v>62.61</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>319</v>
+      </c>
+      <c r="B308">
+        <v>62.9</v>
+      </c>
+      <c r="C308">
+        <v>62.74</v>
+      </c>
+      <c r="D308">
+        <v>63.01</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>316</v>
+      </c>
+      <c r="B309">
+        <v>62.9</v>
+      </c>
+      <c r="C309">
+        <v>62.5</v>
+      </c>
+      <c r="D309">
+        <v>63.24</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>315</v>
+      </c>
+      <c r="B310">
+        <v>62.87</v>
+      </c>
+      <c r="C310">
+        <v>62.89</v>
+      </c>
+      <c r="D310">
+        <v>62.81</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>318</v>
+      </c>
+      <c r="B311">
+        <v>62.54</v>
+      </c>
+      <c r="C311">
+        <v>63.26</v>
+      </c>
+      <c r="D311">
+        <v>61.68</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>62.49</v>
+      </c>
+      <c r="C312">
+        <v>62.53</v>
+      </c>
+      <c r="D312">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>327</v>
+      </c>
+      <c r="B313">
+        <v>62.36</v>
+      </c>
+      <c r="C313">
+        <v>62.21</v>
+      </c>
+      <c r="D313">
+        <v>62.46</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>321</v>
+      </c>
+      <c r="B314">
+        <v>62.14</v>
+      </c>
+      <c r="C314">
+        <v>62.22</v>
+      </c>
+      <c r="D314">
+        <v>62.02</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>323</v>
+      </c>
+      <c r="B315">
+        <v>62.09</v>
+      </c>
+      <c r="C315">
+        <v>62.41</v>
+      </c>
+      <c r="D315">
+        <v>61.69</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>320</v>
+      </c>
+      <c r="B316">
+        <v>62.04</v>
+      </c>
+      <c r="C316">
+        <v>61.49</v>
+      </c>
+      <c r="D316">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>325</v>
+      </c>
+      <c r="B317">
+        <v>61.77</v>
+      </c>
+      <c r="C317">
+        <v>61.93</v>
+      </c>
+      <c r="D317">
+        <v>61.56</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>324</v>
+      </c>
+      <c r="B318">
+        <v>61.68</v>
+      </c>
+      <c r="C318">
+        <v>61.83</v>
+      </c>
+      <c r="D318">
+        <v>61.48</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>326</v>
+      </c>
+      <c r="B319">
+        <v>61.66</v>
+      </c>
+      <c r="C319">
+        <v>61.95</v>
+      </c>
+      <c r="D319">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>329</v>
+      </c>
+      <c r="B320">
+        <v>61.56</v>
+      </c>
+      <c r="C320">
+        <v>62.28</v>
+      </c>
+      <c r="D320">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>328</v>
+      </c>
+      <c r="B321">
+        <v>61.53</v>
+      </c>
+      <c r="C321">
+        <v>61.26</v>
+      </c>
+      <c r="D321">
+        <v>61.75</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>61.44</v>
+      </c>
+      <c r="C322">
+        <v>60.94</v>
+      </c>
+      <c r="D322">
+        <v>61.85</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>330</v>
+      </c>
+      <c r="B323">
+        <v>61.16</v>
+      </c>
+      <c r="C323">
+        <v>61.13</v>
+      </c>
+      <c r="D323">
+        <v>61.14</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>331</v>
+      </c>
+      <c r="B324">
+        <v>60.59</v>
+      </c>
+      <c r="C324">
+        <v>60.17</v>
+      </c>
+      <c r="D324">
+        <v>60.94</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>332</v>
+      </c>
+      <c r="B325">
+        <v>60.39</v>
+      </c>
+      <c r="C325">
+        <v>60.64</v>
+      </c>
+      <c r="D325">
+        <v>60.08</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>333</v>
+      </c>
+      <c r="B326">
+        <v>60.35</v>
+      </c>
+      <c r="C326">
+        <v>60.62</v>
+      </c>
+      <c r="D326">
+        <v>60.03</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>341</v>
+      </c>
+      <c r="B327">
+        <v>60.35</v>
+      </c>
+      <c r="C327">
+        <v>60.52</v>
+      </c>
+      <c r="D327">
+        <v>60.12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>334</v>
+      </c>
+      <c r="B328">
+        <v>59.98</v>
+      </c>
+      <c r="C328">
+        <v>60.37</v>
+      </c>
+      <c r="D328">
+        <v>59.51</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>335</v>
+      </c>
+      <c r="B329">
+        <v>59.7</v>
+      </c>
+      <c r="C329">
+        <v>59.44</v>
+      </c>
+      <c r="D329">
+        <v>59.91</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>336</v>
+      </c>
+      <c r="B330">
+        <v>59.6</v>
+      </c>
+      <c r="C330">
+        <v>59.68</v>
+      </c>
+      <c r="D330">
+        <v>59.47</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>337</v>
+      </c>
+      <c r="B331">
+        <v>59.32</v>
+      </c>
+      <c r="C331">
+        <v>59.28</v>
+      </c>
+      <c r="D331">
+        <v>59.31</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>338</v>
+      </c>
+      <c r="B332">
+        <v>59.3</v>
+      </c>
+      <c r="C332">
+        <v>59.27</v>
+      </c>
+      <c r="D332">
+        <v>59.29</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>340</v>
+      </c>
+      <c r="B333">
+        <v>58.99</v>
+      </c>
+      <c r="C333">
+        <v>59.43</v>
+      </c>
+      <c r="D333">
+        <v>58.46</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>339</v>
+      </c>
+      <c r="B334">
+        <v>58.95</v>
+      </c>
+      <c r="C334">
+        <v>59.48</v>
+      </c>
+      <c r="D334">
+        <v>58.32</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>342</v>
+      </c>
+      <c r="B335">
+        <v>58.84</v>
+      </c>
+      <c r="C335">
+        <v>57.87</v>
+      </c>
+      <c r="D335">
+        <v>59.61</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>343</v>
+      </c>
+      <c r="B336">
+        <v>58.77</v>
+      </c>
+      <c r="C336">
+        <v>58.5</v>
+      </c>
+      <c r="D336">
+        <v>58.99</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>345</v>
+      </c>
+      <c r="B337">
+        <v>58.66</v>
+      </c>
+      <c r="C337">
+        <v>59</v>
+      </c>
+      <c r="D337">
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>344</v>
+      </c>
+      <c r="B338">
+        <v>58.21</v>
+      </c>
+      <c r="C338">
+        <v>56.95</v>
+      </c>
+      <c r="D338">
+        <v>59.16</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>346</v>
+      </c>
+      <c r="B339">
+        <v>57.82</v>
+      </c>
+      <c r="C339">
+        <v>57.54</v>
+      </c>
+      <c r="D339">
+        <v>58.03</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>348</v>
+      </c>
+      <c r="B340">
+        <v>57.59</v>
+      </c>
+      <c r="C340">
+        <v>58.26</v>
+      </c>
+      <c r="D340">
+        <v>56.75</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>347</v>
+      </c>
+      <c r="B341">
+        <v>57.42</v>
+      </c>
+      <c r="C341">
+        <v>56.7</v>
+      </c>
+      <c r="D341">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>349</v>
+      </c>
+      <c r="B342">
+        <v>57.01</v>
+      </c>
+      <c r="C342">
+        <v>56.82</v>
+      </c>
+      <c r="D342">
+        <v>57.15</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>350</v>
+      </c>
+      <c r="B343">
+        <v>56.3</v>
+      </c>
+      <c r="C343">
+        <v>55.92</v>
+      </c>
+      <c r="D343">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>351</v>
+      </c>
+      <c r="B344">
+        <v>55.95</v>
+      </c>
+      <c r="C344">
+        <v>55.89</v>
+      </c>
+      <c r="D344">
+        <v>55.96</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>353</v>
+      </c>
+      <c r="B345">
+        <v>55.95</v>
+      </c>
+      <c r="C345">
+        <v>55.75</v>
+      </c>
+      <c r="D345">
+        <v>56.09</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>352</v>
+      </c>
+      <c r="B346">
+        <v>55.93</v>
+      </c>
+      <c r="C346">
+        <v>56.27</v>
+      </c>
+      <c r="D346">
+        <v>55.52</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>354</v>
+      </c>
+      <c r="B347">
+        <v>55.47</v>
+      </c>
+      <c r="C347">
+        <v>55.38</v>
+      </c>
+      <c r="D347">
+        <v>55.51</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>355</v>
+      </c>
+      <c r="B348">
+        <v>43.97</v>
+      </c>
+      <c r="C348">
+        <v>43.54</v>
+      </c>
+      <c r="D348">
+        <v>44.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D348"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6564,7 +11463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D346"/>
   <sheetViews>
@@ -11423,13 +16322,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12251,12 +17148,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12301,8 +17198,8 @@
         <v>Louisville</v>
       </c>
       <c r="D2">
-        <f>VLOOKUP(C2,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>86.5</v>
+        <f>VLOOKUP(C2,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>94.72</v>
       </c>
       <c r="E2" s="1" t="str">
         <f>VLOOKUP(A2,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12324,8 +17221,8 @@
         <v>Duke</v>
       </c>
       <c r="D3">
-        <f>VLOOKUP(C3,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>88.27</v>
+        <f>VLOOKUP(C3,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>91.03</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>VLOOKUP(A3,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12347,8 +17244,8 @@
         <v>Michigan State</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(C4,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>93.12</v>
+        <f>VLOOKUP(C4,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>89.61</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>369</v>
@@ -12369,8 +17266,8 @@
         <v>Saint Louis</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(C5,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>87.33</v>
+        <f>VLOOKUP(C5,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>87.17</v>
       </c>
       <c r="E5" s="1" t="str">
         <f>VLOOKUP(A5,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12392,8 +17289,8 @@
         <v>Oklahoma State</v>
       </c>
       <c r="D6">
-        <f>VLOOKUP(C6,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>78.72</v>
+        <f>VLOOKUP(C6,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>86.61</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>373</v>
@@ -12414,8 +17311,8 @@
         <v>Memphis</v>
       </c>
       <c r="D7">
-        <f>VLOOKUP(C7,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>88.74</v>
+        <f>VLOOKUP(C7,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>84.88</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>VLOOKUP(A7,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12437,8 +17334,8 @@
         <v>Creighton</v>
       </c>
       <c r="D8">
-        <f>VLOOKUP(C8,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>84.77</v>
+        <f>VLOOKUP(C8,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>86.87</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>VLOOKUP(A8,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12460,8 +17357,8 @@
         <v>Colorado State</v>
       </c>
       <c r="D9">
-        <f>VLOOKUP(C9,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>79.31</v>
+        <f>VLOOKUP(C9,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>84.37</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>375</v>
@@ -12482,8 +17379,8 @@
         <v>Missouri</v>
       </c>
       <c r="D10">
-        <f>VLOOKUP(C10,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>90.9</v>
+        <f>VLOOKUP(C10,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>87.58</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>VLOOKUP(A10,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12505,8 +17402,8 @@
         <v>Cincinnati</v>
       </c>
       <c r="D11">
-        <f>VLOOKUP(C11,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>83.69</v>
+        <f>VLOOKUP(C11,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>84.17</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>VLOOKUP(A11,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12528,8 +17425,8 @@
         <v>Oregon</v>
       </c>
       <c r="D12">
-        <f>VLOOKUP(C12,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>80.37</v>
+        <f>VLOOKUP(C12,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>82.63</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>VLOOKUP(A12,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12550,8 +17447,8 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <f>VLOOKUP(C13,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>80.89</v>
+        <f>VLOOKUP(C13,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>78.930000000000007</v>
       </c>
       <c r="E13" s="1" t="str">
         <f>VLOOKUP(A13,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12573,8 +17470,8 @@
         <v>Valparaiso</v>
       </c>
       <c r="D14">
-        <f>VLOOKUP(C14,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>74.680000000000007</v>
+        <f>VLOOKUP(C14,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>80.47</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP(A14,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12595,8 +17492,8 @@
         <v>180</v>
       </c>
       <c r="D15">
-        <f>VLOOKUP(C15,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>70.349999999999994</v>
+        <f>VLOOKUP(C15,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>72.75</v>
       </c>
       <c r="E15" s="1" t="str">
         <f>VLOOKUP(A15,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12618,8 +17515,8 @@
         <v>Kansas</v>
       </c>
       <c r="D16">
-        <f>VLOOKUP(C16,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>92.45</v>
+        <f>VLOOKUP(C16,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>91.7</v>
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP(A16,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12642,8 +17539,8 @@
         <v>Georgetown</v>
       </c>
       <c r="D17">
-        <f>VLOOKUP(C17,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>88.11</v>
+        <f>VLOOKUP(C17,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>88.93</v>
       </c>
       <c r="E17" s="1" t="str">
         <f>VLOOKUP(A17,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12666,8 +17563,8 @@
         <v>Florida</v>
       </c>
       <c r="D18">
-        <f>VLOOKUP(C18,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>87.7</v>
+        <f>VLOOKUP(C18,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>93.86</v>
       </c>
       <c r="E18" s="1" t="str">
         <f>VLOOKUP(A18,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12690,8 +17587,8 @@
         <v>Michigan</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(C19,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>85.13</v>
+        <f>VLOOKUP(C19,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>89.01</v>
       </c>
       <c r="E19" s="1" t="str">
         <f>VLOOKUP(A19,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12713,8 +17610,8 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <f>VLOOKUP(C20,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>81.34</v>
+        <f>VLOOKUP(C20,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>86.3</v>
       </c>
       <c r="E20" s="1" t="str">
         <f>VLOOKUP(A20,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12737,8 +17634,8 @@
         <v>UCLA</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(C21,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>81.569999999999993</v>
+        <f>VLOOKUP(C21,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>83.29</v>
       </c>
       <c r="E21" s="1" t="str">
         <f>VLOOKUP(A21,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12761,8 +17658,8 @@
         <v>San Diego State</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(C22,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>81.39</v>
+        <f>VLOOKUP(C22,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>84.77</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>36</v>
@@ -12784,8 +17681,8 @@
         <v>North Carolina</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(C23,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>91.85</v>
+        <f>VLOOKUP(C23,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>86.3</v>
       </c>
       <c r="E23" s="1" t="str">
         <f>VLOOKUP(A23,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12808,8 +17705,8 @@
         <v>Villanova</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(C24,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>79.319999999999993</v>
+        <f>VLOOKUP(C24,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>83.11</v>
       </c>
       <c r="E24" s="1" t="str">
         <f>VLOOKUP(A24,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12832,8 +17729,8 @@
         <v>Oklahoma</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(C25,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>78.400000000000006</v>
+        <f>VLOOKUP(C25,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>82.96</v>
       </c>
       <c r="E25" s="1" t="str">
         <f>VLOOKUP(A25,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12856,8 +17753,8 @@
         <v>Minnesota</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(C26,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>81.5</v>
+        <f>VLOOKUP(C26,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>85.37</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>VLOOKUP(A26,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12880,8 +17777,8 @@
         <v>Akron</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(C27,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>79.819999999999993</v>
+        <f>VLOOKUP(C27,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>81.28</v>
       </c>
       <c r="E27" s="1" t="str">
         <f>VLOOKUP(A27,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12904,8 +17801,8 @@
         <v>South Dakota State</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(C28,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>80.930000000000007</v>
+        <f>VLOOKUP(C28,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>77.680000000000007</v>
       </c>
       <c r="E28" s="1" t="str">
         <f>VLOOKUP(A28,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12928,8 +17825,8 @@
         <v>Northwestern State</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(C29,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>68.36</v>
+        <f>VLOOKUP(C29,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>74.010000000000005</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>385</v>
@@ -12951,8 +17848,8 @@
         <v>Florida Gulf Coast</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP(C30,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>71.930000000000007</v>
+        <f>VLOOKUP(C30,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>75.69</v>
       </c>
       <c r="E30" s="1" t="str">
         <f>VLOOKUP(A30,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12975,8 +17872,8 @@
         <v>Western Kentucky</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(C31,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>70.040000000000006</v>
+        <f>VLOOKUP(C31,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>71.48</v>
       </c>
       <c r="E31" s="1" t="str">
         <f>VLOOKUP(A31,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -12999,8 +17896,8 @@
         <v>Gonzaga</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(C32,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>84.48</v>
+        <f>VLOOKUP(C32,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>91.43</v>
       </c>
       <c r="E32" s="1" t="str">
         <f>VLOOKUP(A32,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13022,8 +17919,8 @@
         <v>Ohio State</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP(C33,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>94.91</v>
+        <f>VLOOKUP(C33,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>91.24</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>368</v>
@@ -13044,8 +17941,8 @@
         <v>New Mexico</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(C34,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>87.37</v>
+        <f>VLOOKUP(C34,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>86</v>
       </c>
       <c r="E34" s="1" t="str">
         <f>VLOOKUP(A34,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13067,8 +17964,8 @@
         <v>Kansas State</v>
       </c>
       <c r="D35">
-        <f>VLOOKUP(C35,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>86.08</v>
+        <f>VLOOKUP(C35,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>85.64</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>387</v>
@@ -13089,8 +17986,8 @@
         <v>Wisconsin</v>
       </c>
       <c r="D36">
-        <f>VLOOKUP(C36,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>90.86</v>
+        <f>VLOOKUP(C36,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>89.65</v>
       </c>
       <c r="E36" s="1" t="str">
         <f>VLOOKUP(A36,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13112,8 +18009,8 @@
         <v>Arizona</v>
       </c>
       <c r="D37">
-        <f>VLOOKUP(C37,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>82.36</v>
+        <f>VLOOKUP(C37,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>86.31</v>
       </c>
       <c r="E37" s="1" t="str">
         <f>VLOOKUP(A37,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13135,8 +18032,8 @@
         <v>Notre Dame</v>
       </c>
       <c r="D38">
-        <f>VLOOKUP(C38,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>82.38</v>
+        <f>VLOOKUP(C38,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>85.73</v>
       </c>
       <c r="E38" s="1" t="str">
         <f>VLOOKUP(A38,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13158,8 +18055,8 @@
         <v>Pittsburgh</v>
       </c>
       <c r="D39">
-        <f>VLOOKUP(C39,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>79.790000000000006</v>
+        <f>VLOOKUP(C39,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>89.34</v>
       </c>
       <c r="E39" s="1" t="str">
         <f>VLOOKUP(A39,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13181,8 +18078,8 @@
         <v>Wichita State</v>
       </c>
       <c r="D40">
-        <f>VLOOKUP(C40,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>89.47</v>
+        <f>VLOOKUP(C40,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>83.74</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>405</v>
@@ -13203,8 +18100,8 @@
         <v>Iowa State</v>
       </c>
       <c r="D41">
-        <f>VLOOKUP(C41,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>84.35</v>
+        <f>VLOOKUP(C41,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>84.42</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>378</v>
@@ -13225,8 +18122,8 @@
         <v>Belmont</v>
       </c>
       <c r="D42">
-        <f>VLOOKUP(C42,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>85.6</v>
+        <f>VLOOKUP(C42,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>82.96</v>
       </c>
       <c r="E42" s="1" t="str">
         <f>VLOOKUP(A42,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13248,8 +18145,8 @@
         <v>Mississippi</v>
       </c>
       <c r="D43">
-        <f>VLOOKUP(C43,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>78.599999999999994</v>
+        <f>VLOOKUP(C43,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>85.01</v>
       </c>
       <c r="E43" s="1" t="str">
         <f>VLOOKUP(A43,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13271,8 +18168,8 @@
         <v>Harvard</v>
       </c>
       <c r="D44">
-        <f>VLOOKUP(C44,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>82.34</v>
+        <f>VLOOKUP(C44,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>76.959999999999994</v>
       </c>
       <c r="E44" s="1" t="str">
         <f>VLOOKUP(A44,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13294,8 +18191,8 @@
         <v>Iona</v>
       </c>
       <c r="D45">
-        <f>VLOOKUP(C45,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>81.650000000000006</v>
+        <f>VLOOKUP(C45,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>77.28</v>
       </c>
       <c r="E45" s="1" t="str">
         <f>VLOOKUP(A45,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13316,8 +18213,8 @@
         <v>216</v>
       </c>
       <c r="D46">
-        <f>VLOOKUP(C46,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>59.5</v>
+        <f>VLOOKUP(C46,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>70.569999999999993</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>386</v>
@@ -13338,8 +18235,8 @@
         <v>Indiana</v>
       </c>
       <c r="D47">
-        <f>VLOOKUP(C47,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>89.55</v>
+        <f>VLOOKUP(C47,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>93.51</v>
       </c>
       <c r="E47" s="1" t="str">
         <f>VLOOKUP(A47,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13360,8 +18257,8 @@
         <v>64</v>
       </c>
       <c r="D48">
-        <f>VLOOKUP(C48,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>82.87</v>
+        <f>VLOOKUP(C48,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>87.91</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>64</v>
@@ -13382,8 +18279,8 @@
         <v>Marquette</v>
       </c>
       <c r="D49">
-        <f>VLOOKUP(C49,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>87.5</v>
+        <f>VLOOKUP(C49,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>85.87</v>
       </c>
       <c r="E49" s="1" t="str">
         <f>VLOOKUP(A49,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13405,8 +18302,8 @@
         <v>Syracuse</v>
       </c>
       <c r="D50">
-        <f>VLOOKUP(C50,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>91.32</v>
+        <f>VLOOKUP(C50,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>88.68</v>
       </c>
       <c r="E50" s="1" t="str">
         <f>VLOOKUP(A50,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13428,8 +18325,8 @@
         <v>UNLV</v>
       </c>
       <c r="D51">
-        <f>VLOOKUP(C51,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>85.25</v>
+        <f>VLOOKUP(C51,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>83.97</v>
       </c>
       <c r="E51" s="1" t="str">
         <f>VLOOKUP(A51,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13451,8 +18348,8 @@
         <v>Butler</v>
       </c>
       <c r="D52">
-        <f>VLOOKUP(C52,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>75.67</v>
+        <f>VLOOKUP(C52,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>82.02</v>
       </c>
       <c r="E52" s="1" t="str">
         <f>VLOOKUP(A52,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13474,8 +18371,8 @@
         <v>Illinois</v>
       </c>
       <c r="D53">
-        <f>VLOOKUP(C53,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>80.63</v>
+        <f>VLOOKUP(C53,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>83.3</v>
       </c>
       <c r="E53" s="1" t="str">
         <f>VLOOKUP(A53,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13497,8 +18394,8 @@
         <v>NC State</v>
       </c>
       <c r="D54">
-        <f>VLOOKUP(C54,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>82.63</v>
+        <f>VLOOKUP(C54,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>85.73</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>372</v>
@@ -13519,8 +18416,8 @@
         <v>Temple</v>
       </c>
       <c r="D55">
-        <f>VLOOKUP(C55,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>83.52</v>
+        <f>VLOOKUP(C55,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>81.31</v>
       </c>
       <c r="E55" s="1" t="str">
         <f>VLOOKUP(A55,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13542,8 +18439,8 @@
         <v>Colorado</v>
       </c>
       <c r="D56">
-        <f>VLOOKUP(C56,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>79.260000000000005</v>
+        <f>VLOOKUP(C56,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>82.37</v>
       </c>
       <c r="E56" s="1" t="str">
         <f>VLOOKUP(A56,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13565,8 +18462,8 @@
         <v>Bucknell</v>
       </c>
       <c r="D57">
-        <f>VLOOKUP(C57,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>77.31</v>
+        <f>VLOOKUP(C57,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>79.23</v>
       </c>
       <c r="E57" s="1" t="str">
         <f>VLOOKUP(A57,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13588,8 +18485,8 @@
         <v>California</v>
       </c>
       <c r="D58">
-        <f>VLOOKUP(C58,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>85.44</v>
+        <f>VLOOKUP(C58,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>81.55</v>
       </c>
       <c r="E58" s="1" t="str">
         <f>VLOOKUP(A58,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13611,8 +18508,8 @@
         <v>Montana</v>
       </c>
       <c r="D59">
-        <f>VLOOKUP(C59,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>78.11</v>
+        <f>VLOOKUP(C59,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>74.25</v>
       </c>
       <c r="E59" s="1" t="str">
         <f>VLOOKUP(A59,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13634,8 +18531,8 @@
         <v>Davidson</v>
       </c>
       <c r="D60">
-        <f>VLOOKUP(C60,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>80.349999999999994</v>
+        <f>VLOOKUP(C60,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>81.42</v>
       </c>
       <c r="E60" s="1" t="str">
         <f>VLOOKUP(A60,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13657,8 +18554,8 @@
         <v>Pacific</v>
       </c>
       <c r="D61">
-        <f>VLOOKUP(C61,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>65.38</v>
+        <f>VLOOKUP(C61,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>74.86</v>
       </c>
       <c r="E61" s="1" t="str">
         <f>VLOOKUP(A61,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13678,9 +18575,9 @@
       <c r="C62" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="1">
-        <f>VLOOKUP(C62,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>81.59</v>
+      <c r="D62">
+        <f>VLOOKUP(C62,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>82.98</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>393</v>
@@ -13699,9 +18596,9 @@
       <c r="C63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="1">
-        <f>VLOOKUP(C63,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>83.38</v>
+      <c r="D63">
+        <f>VLOOKUP(C63,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>85.25</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>403</v>
@@ -13720,9 +18617,9 @@
       <c r="C64" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D64" s="1">
-        <f>VLOOKUP(C64,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>63.22</v>
+      <c r="D64">
+        <f>VLOOKUP(C64,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>68.260000000000005</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>367</v>
@@ -13742,9 +18639,9 @@
         <f t="shared" ref="C65:C69" si="1">+A65</f>
         <v>Liberty</v>
       </c>
-      <c r="D65" s="1">
-        <f>VLOOKUP(C65,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>64.66</v>
+      <c r="D65">
+        <f>VLOOKUP(C65,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>67.069999999999993</v>
       </c>
       <c r="E65" s="1" t="str">
         <f>VLOOKUP(A65,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13765,9 +18662,9 @@
         <f t="shared" si="1"/>
         <v>Boise State</v>
       </c>
-      <c r="D66" s="1">
-        <f>VLOOKUP(C66,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>75.17</v>
+      <c r="D66">
+        <f>VLOOKUP(C66,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>81.12</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>395</v>
@@ -13787,9 +18684,9 @@
         <f t="shared" si="1"/>
         <v>La Salle</v>
       </c>
-      <c r="D67" s="1">
-        <f>VLOOKUP(C67,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>81.09</v>
+      <c r="D67">
+        <f>VLOOKUP(C67,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>81.59</v>
       </c>
       <c r="E67" s="1" t="str">
         <f>VLOOKUP(A67,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13809,9 +18706,9 @@
       <c r="C68" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="1">
-        <f>VLOOKUP(C68,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>72.75</v>
+      <c r="D68">
+        <f>VLOOKUP(C68,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>72.5</v>
       </c>
       <c r="E68" s="1" t="str">
         <f>VLOOKUP(A68,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
@@ -13832,9 +18729,9 @@
         <f t="shared" si="1"/>
         <v>James Madison</v>
       </c>
-      <c r="D69" s="1">
-        <f>VLOOKUP(C69,'2012.03.12 Sagarin Ratings'!$A$2:$D$346,4,FALSE)</f>
-        <v>67.94</v>
+      <c r="D69">
+        <f>VLOOKUP(C69,'2013.03.17 Sagarin Ratings'!$A$2:$D$500,4,FALSE)</f>
+        <v>72.290000000000006</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>VLOOKUP(A69,usaTodayNames!$A$1:$A$400,1,FALSE)</f>
